--- a/medicine/Enfance/Charlie_et_le_Grand_Ascenseur_de_verre/Charlie_et_le_Grand_Ascenseur_de_verre.xlsx
+++ b/medicine/Enfance/Charlie_et_le_Grand_Ascenseur_de_verre/Charlie_et_le_Grand_Ascenseur_de_verre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charlie et le Grand Ascenseur de verre (Charlie and the Great Glass Elevator) est un roman pour enfants de l'auteur britannique Roald Dahl. 
 Paru en 1972, il est la suite directe de Charlie et la Chocolaterie, les actions entres les 2 romans ayant lieu sans ellipse.
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Charlie a gagné la fabuleuse chocolaterie de Willy Wonka qu'il survole maintenant à bord d'un extraordinaire engin, le grand ascenseur de verre, en compagnie de toute sa famille. Mais une fausse manœuvre va projeter l'ascenseur dans l'espace. Un espace qu'ils découvrent peuplé d'êtres fantastiques et monstrueux, les Kpoux Vermicieux, terreurs de l'univers interstellaire, contre lesquels ils vont livrer une terrible bataille...
 </t>
